--- a/files/ficha_epi_backup.xlsx
+++ b/files/ficha_epi_backup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Familia\Documents\Manasses\Programação\sistema_estoque\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Praticaprograming\sistem_ficha_epi\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B818E68D-219D-4C65-8623-66640C9F29C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06206F5-DC27-45C0-AF05-018DEA43E82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="2445" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1806" windowWidth="15951" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HIGOR ALMEIDA ANDRADE" sheetId="38" r:id="rId1"/>
@@ -674,21 +674,84 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -697,69 +760,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -778,76 +778,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>181630</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FB956BB-7726-4445-B293-404C5824A6E2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect b="10680"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="800101" y="28576"/>
-          <a:ext cx="657224" cy="521354"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -885,7 +819,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -991,7 +925,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1133,7 +1067,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1143,16 +1077,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7104DB-7528-4733-9914-BAA33250C1F7}">
   <dimension ref="B1:AK54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleNormal="96" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A57" zoomScale="85" zoomScaleNormal="96" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="AH5" sqref="AH5:AK5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="37" width="3.7109375" customWidth="1"/>
+    <col min="2" max="37" width="3.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:37" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:37" ht="18.3" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1192,23 +1126,23 @@
       <c r="AJ1" s="2"/>
       <c r="AK1" s="3"/>
     </row>
-    <row r="2" spans="2:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:37" ht="18.3" x14ac:dyDescent="0.4">
       <c r="B2" s="4"/>
       <c r="E2" s="5"/>
       <c r="J2" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="47" t="s">
+      <c r="AG2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
       <c r="AK2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:37" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -1246,78 +1180,78 @@
       <c r="AJ3" s="8"/>
       <c r="AK3" s="9"/>
     </row>
-    <row r="4" spans="2:37" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:37" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:37" ht="16.100000000000001" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="52" t="s">
+      <c r="H5" s="33"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="V5" s="53"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="54"/>
-      <c r="AA5" s="54"/>
-      <c r="AB5" s="54"/>
-      <c r="AC5" s="54"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
       <c r="AE5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="AH5" s="34"/>
-      <c r="AI5" s="32"/>
-      <c r="AJ5" s="32"/>
-      <c r="AK5" s="32"/>
-    </row>
-    <row r="6" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AH5" s="39"/>
+      <c r="AI5" s="40"/>
+      <c r="AJ5" s="40"/>
+      <c r="AK5" s="40"/>
+    </row>
+    <row r="6" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
       <c r="S6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="U6" s="56"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="57"/>
-      <c r="X6" s="57"/>
-      <c r="Y6" s="57"/>
-      <c r="Z6" s="58"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="44"/>
       <c r="AD6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AH6" s="59"/>
-      <c r="AI6" s="59"/>
-      <c r="AJ6" s="59"/>
-      <c r="AK6" s="59"/>
-    </row>
-    <row r="7" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH6" s="45"/>
+      <c r="AI6" s="45"/>
+      <c r="AJ6" s="45"/>
+      <c r="AK6" s="45"/>
+    </row>
+    <row r="7" spans="2:37" ht="10.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -1355,7 +1289,7 @@
       <c r="AJ7" s="11"/>
       <c r="AK7" s="11"/>
     </row>
-    <row r="8" spans="2:37" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:37" ht="18.3" x14ac:dyDescent="0.3">
       <c r="B8" s="21"/>
       <c r="C8" s="22" t="s">
         <v>16</v>
@@ -1395,7 +1329,7 @@
       <c r="AJ8" s="23"/>
       <c r="AK8" s="24"/>
     </row>
-    <row r="9" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B9" s="14"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -1433,7 +1367,7 @@
       <c r="AJ9" s="11"/>
       <c r="AK9" s="19"/>
     </row>
-    <row r="10" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B10" s="14"/>
       <c r="C10" s="15" t="s">
         <v>17</v>
@@ -1473,7 +1407,7 @@
       <c r="AJ10" s="11"/>
       <c r="AK10" s="19"/>
     </row>
-    <row r="11" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B11" s="14"/>
       <c r="C11" s="15" t="s">
         <v>18</v>
@@ -1513,7 +1447,7 @@
       <c r="AJ11" s="11"/>
       <c r="AK11" s="19"/>
     </row>
-    <row r="12" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B12" s="14"/>
       <c r="C12" s="16" t="s">
         <v>19</v>
@@ -1553,7 +1487,7 @@
       <c r="AJ12" s="11"/>
       <c r="AK12" s="19"/>
     </row>
-    <row r="13" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B13" s="14"/>
       <c r="C13" s="17" t="s">
         <v>20</v>
@@ -1593,7 +1527,7 @@
       <c r="AJ13" s="11"/>
       <c r="AK13" s="19"/>
     </row>
-    <row r="14" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
       <c r="C14" s="18" t="s">
         <v>21</v>
@@ -1633,7 +1567,7 @@
       <c r="AJ14" s="11"/>
       <c r="AK14" s="19"/>
     </row>
-    <row r="15" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B15" s="14"/>
       <c r="C15" s="16" t="s">
         <v>22</v>
@@ -1673,7 +1607,7 @@
       <c r="AJ15" s="11"/>
       <c r="AK15" s="19"/>
     </row>
-    <row r="16" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B16" s="14"/>
       <c r="C16" s="17" t="s">
         <v>23</v>
@@ -1713,7 +1647,7 @@
       <c r="AJ16" s="11"/>
       <c r="AK16" s="19"/>
     </row>
-    <row r="17" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B17" s="14"/>
       <c r="C17" s="18" t="s">
         <v>24</v>
@@ -1753,7 +1687,7 @@
       <c r="AJ17" s="11"/>
       <c r="AK17" s="19"/>
     </row>
-    <row r="18" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B18" s="14"/>
       <c r="C18" s="15" t="s">
         <v>25</v>
@@ -1793,7 +1727,7 @@
       <c r="AJ18" s="11"/>
       <c r="AK18" s="19"/>
     </row>
-    <row r="19" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B19" s="14"/>
       <c r="C19" s="17" t="s">
         <v>26</v>
@@ -1833,7 +1767,7 @@
       <c r="AJ19" s="11"/>
       <c r="AK19" s="19"/>
     </row>
-    <row r="20" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B20" s="14"/>
       <c r="C20" s="17"/>
       <c r="D20" s="11"/>
@@ -1871,7 +1805,7 @@
       <c r="AJ20" s="11"/>
       <c r="AK20" s="19"/>
     </row>
-    <row r="21" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B21" s="14"/>
       <c r="C21" s="13" t="s">
         <v>28</v>
@@ -1913,7 +1847,7 @@
       <c r="AJ21" s="13"/>
       <c r="AK21" s="20"/>
     </row>
-    <row r="22" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B22" s="25"/>
       <c r="C22" s="26"/>
       <c r="D22" s="12"/>
@@ -1953,7 +1887,7 @@
       <c r="AJ22" s="26"/>
       <c r="AK22" s="28"/>
     </row>
-    <row r="23" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:37" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -1991,1438 +1925,1234 @@
       <c r="AJ23" s="13"/>
       <c r="AK23" s="13"/>
     </row>
-    <row r="24" spans="2:37" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="39" t="s">
+    <row r="24" spans="2:37" ht="35.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39" t="s">
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39" t="s">
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39" t="s">
+      <c r="T24" s="55"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="W24" s="39"/>
-      <c r="X24" s="39" t="s">
+      <c r="W24" s="55"/>
+      <c r="X24" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="39" t="s">
+      <c r="Y24" s="55"/>
+      <c r="Z24" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="AA24" s="39"/>
-      <c r="AB24" s="39"/>
-      <c r="AC24" s="39"/>
-      <c r="AD24" s="39"/>
-      <c r="AE24" s="39"/>
-      <c r="AF24" s="39"/>
-      <c r="AG24" s="39"/>
-      <c r="AH24" s="35" t="s">
+      <c r="AA24" s="55"/>
+      <c r="AB24" s="55"/>
+      <c r="AC24" s="55"/>
+      <c r="AD24" s="55"/>
+      <c r="AE24" s="55"/>
+      <c r="AF24" s="55"/>
+      <c r="AG24" s="55"/>
+      <c r="AH24" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="AI24" s="35"/>
-      <c r="AJ24" s="35"/>
-      <c r="AK24" s="35"/>
-    </row>
-    <row r="25" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="34"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="40" t="s">
+      <c r="AI24" s="46"/>
+      <c r="AJ24" s="46"/>
+      <c r="AK24" s="46"/>
+    </row>
+    <row r="25" spans="2:37" ht="21.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="39"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="T25" s="41"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="42"/>
-      <c r="X25" s="40">
+      <c r="T25" s="51"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="50">
         <v>2</v>
       </c>
-      <c r="Y25" s="42"/>
-      <c r="Z25" s="32"/>
-      <c r="AA25" s="32"/>
-      <c r="AB25" s="32"/>
-      <c r="AC25" s="32"/>
-      <c r="AD25" s="32"/>
-      <c r="AE25" s="32"/>
-      <c r="AF25" s="32"/>
-      <c r="AG25" s="32"/>
-      <c r="AH25" s="43"/>
-      <c r="AI25" s="31"/>
-      <c r="AJ25" s="31"/>
-      <c r="AK25" s="31"/>
-    </row>
-    <row r="26" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="34"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="40" t="s">
+      <c r="Y25" s="52"/>
+      <c r="Z25" s="40"/>
+      <c r="AA25" s="40"/>
+      <c r="AB25" s="40"/>
+      <c r="AC25" s="40"/>
+      <c r="AD25" s="40"/>
+      <c r="AE25" s="40"/>
+      <c r="AF25" s="40"/>
+      <c r="AG25" s="40"/>
+      <c r="AH25" s="53"/>
+      <c r="AI25" s="54"/>
+      <c r="AJ25" s="54"/>
+      <c r="AK25" s="54"/>
+    </row>
+    <row r="26" spans="2:37" ht="21.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="39"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="T26" s="41"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="32">
+      <c r="T26" s="51"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40">
         <v>1</v>
       </c>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="32"/>
-      <c r="AC26" s="32"/>
-      <c r="AD26" s="32"/>
-      <c r="AE26" s="32"/>
-      <c r="AF26" s="32"/>
-      <c r="AG26" s="32"/>
-      <c r="AH26" s="43"/>
-      <c r="AI26" s="31"/>
-      <c r="AJ26" s="31"/>
-      <c r="AK26" s="31"/>
-    </row>
-    <row r="27" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="34"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="40" t="s">
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="40"/>
+      <c r="AC26" s="40"/>
+      <c r="AD26" s="40"/>
+      <c r="AE26" s="40"/>
+      <c r="AF26" s="40"/>
+      <c r="AG26" s="40"/>
+      <c r="AH26" s="53"/>
+      <c r="AI26" s="54"/>
+      <c r="AJ26" s="54"/>
+      <c r="AK26" s="54"/>
+    </row>
+    <row r="27" spans="2:37" ht="21.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="39"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="T27" s="41"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="32"/>
-      <c r="W27" s="32"/>
-      <c r="X27" s="32">
+      <c r="T27" s="51"/>
+      <c r="U27" s="52"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
+      <c r="X27" s="40">
         <v>1</v>
       </c>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="32"/>
-      <c r="AA27" s="32"/>
-      <c r="AB27" s="32"/>
-      <c r="AC27" s="32"/>
-      <c r="AD27" s="32"/>
-      <c r="AE27" s="32"/>
-      <c r="AF27" s="32"/>
-      <c r="AG27" s="32"/>
-      <c r="AH27" s="31"/>
-      <c r="AI27" s="31"/>
-      <c r="AJ27" s="31"/>
-      <c r="AK27" s="31"/>
-    </row>
-    <row r="28" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="34"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="40" t="s">
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="40"/>
+      <c r="AA27" s="40"/>
+      <c r="AB27" s="40"/>
+      <c r="AC27" s="40"/>
+      <c r="AD27" s="40"/>
+      <c r="AE27" s="40"/>
+      <c r="AF27" s="40"/>
+      <c r="AG27" s="40"/>
+      <c r="AH27" s="54"/>
+      <c r="AI27" s="54"/>
+      <c r="AJ27" s="54"/>
+      <c r="AK27" s="54"/>
+    </row>
+    <row r="28" spans="2:37" ht="21.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="39"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="T28" s="41"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="32">
+      <c r="T28" s="51"/>
+      <c r="U28" s="52"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="40"/>
+      <c r="X28" s="40">
         <v>1</v>
       </c>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="32"/>
-      <c r="AA28" s="32"/>
-      <c r="AB28" s="32"/>
-      <c r="AC28" s="32"/>
-      <c r="AD28" s="32"/>
-      <c r="AE28" s="32"/>
-      <c r="AF28" s="32"/>
-      <c r="AG28" s="32"/>
-      <c r="AH28" s="31"/>
-      <c r="AI28" s="31"/>
-      <c r="AJ28" s="31"/>
-      <c r="AK28" s="31"/>
-    </row>
-    <row r="29" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="34"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="40" t="s">
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="40"/>
+      <c r="AA28" s="40"/>
+      <c r="AB28" s="40"/>
+      <c r="AC28" s="40"/>
+      <c r="AD28" s="40"/>
+      <c r="AE28" s="40"/>
+      <c r="AF28" s="40"/>
+      <c r="AG28" s="40"/>
+      <c r="AH28" s="54"/>
+      <c r="AI28" s="54"/>
+      <c r="AJ28" s="54"/>
+      <c r="AK28" s="54"/>
+    </row>
+    <row r="29" spans="2:37" ht="21.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="39"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="T29" s="41"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="32"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="32">
+      <c r="T29" s="51"/>
+      <c r="U29" s="52"/>
+      <c r="V29" s="40"/>
+      <c r="W29" s="40"/>
+      <c r="X29" s="40">
         <v>1</v>
       </c>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="32"/>
-      <c r="AA29" s="32"/>
-      <c r="AB29" s="32"/>
-      <c r="AC29" s="32"/>
-      <c r="AD29" s="32"/>
-      <c r="AE29" s="32"/>
-      <c r="AF29" s="32"/>
-      <c r="AG29" s="32"/>
-      <c r="AH29" s="31"/>
-      <c r="AI29" s="31"/>
-      <c r="AJ29" s="31"/>
-      <c r="AK29" s="31"/>
-    </row>
-    <row r="30" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="34"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="32"/>
-      <c r="T30" s="32"/>
-      <c r="U30" s="32"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="32"/>
-      <c r="Y30" s="32"/>
-      <c r="Z30" s="32"/>
-      <c r="AA30" s="32"/>
-      <c r="AB30" s="32"/>
-      <c r="AC30" s="32"/>
-      <c r="AD30" s="32"/>
-      <c r="AE30" s="32"/>
-      <c r="AF30" s="32"/>
-      <c r="AG30" s="32"/>
-      <c r="AH30" s="31"/>
-      <c r="AI30" s="31"/>
-      <c r="AJ30" s="31"/>
-      <c r="AK30" s="31"/>
-    </row>
-    <row r="31" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="34"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="32"/>
-      <c r="Y31" s="32"/>
-      <c r="Z31" s="32"/>
-      <c r="AA31" s="32"/>
-      <c r="AB31" s="32"/>
-      <c r="AC31" s="32"/>
-      <c r="AD31" s="32"/>
-      <c r="AE31" s="32"/>
-      <c r="AF31" s="32"/>
-      <c r="AG31" s="32"/>
-      <c r="AH31" s="31"/>
-      <c r="AI31" s="31"/>
-      <c r="AJ31" s="31"/>
-      <c r="AK31" s="31"/>
-    </row>
-    <row r="32" spans="2:37" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="36" t="s">
+      <c r="Y29" s="40"/>
+      <c r="Z29" s="40"/>
+      <c r="AA29" s="40"/>
+      <c r="AB29" s="40"/>
+      <c r="AC29" s="40"/>
+      <c r="AD29" s="40"/>
+      <c r="AE29" s="40"/>
+      <c r="AF29" s="40"/>
+      <c r="AG29" s="40"/>
+      <c r="AH29" s="54"/>
+      <c r="AI29" s="54"/>
+      <c r="AJ29" s="54"/>
+      <c r="AK29" s="54"/>
+    </row>
+    <row r="30" spans="2:37" ht="21.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="39"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="40"/>
+      <c r="W30" s="40"/>
+      <c r="X30" s="40"/>
+      <c r="Y30" s="40"/>
+      <c r="Z30" s="40"/>
+      <c r="AA30" s="40"/>
+      <c r="AB30" s="40"/>
+      <c r="AC30" s="40"/>
+      <c r="AD30" s="40"/>
+      <c r="AE30" s="40"/>
+      <c r="AF30" s="40"/>
+      <c r="AG30" s="40"/>
+      <c r="AH30" s="54"/>
+      <c r="AI30" s="54"/>
+      <c r="AJ30" s="54"/>
+      <c r="AK30" s="54"/>
+    </row>
+    <row r="31" spans="2:37" ht="21.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="39"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="40"/>
+      <c r="W31" s="40"/>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="40"/>
+      <c r="Z31" s="40"/>
+      <c r="AA31" s="40"/>
+      <c r="AB31" s="40"/>
+      <c r="AC31" s="40"/>
+      <c r="AD31" s="40"/>
+      <c r="AE31" s="40"/>
+      <c r="AF31" s="40"/>
+      <c r="AG31" s="40"/>
+      <c r="AH31" s="54"/>
+      <c r="AI31" s="54"/>
+      <c r="AJ31" s="54"/>
+      <c r="AK31" s="54"/>
+    </row>
+    <row r="32" spans="2:37" ht="35.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="39" t="s">
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39" t="s">
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="55"/>
+      <c r="S32" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="T32" s="39"/>
-      <c r="U32" s="39"/>
-      <c r="V32" s="39" t="s">
+      <c r="T32" s="55"/>
+      <c r="U32" s="55"/>
+      <c r="V32" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="W32" s="39"/>
-      <c r="X32" s="39" t="s">
+      <c r="W32" s="55"/>
+      <c r="X32" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="Y32" s="39"/>
-      <c r="Z32" s="39" t="s">
+      <c r="Y32" s="55"/>
+      <c r="Z32" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="AA32" s="39"/>
-      <c r="AB32" s="39"/>
-      <c r="AC32" s="39"/>
-      <c r="AD32" s="39"/>
-      <c r="AE32" s="39"/>
-      <c r="AF32" s="39"/>
-      <c r="AG32" s="39"/>
-      <c r="AH32" s="35" t="s">
+      <c r="AA32" s="55"/>
+      <c r="AB32" s="55"/>
+      <c r="AC32" s="55"/>
+      <c r="AD32" s="55"/>
+      <c r="AE32" s="55"/>
+      <c r="AF32" s="55"/>
+      <c r="AG32" s="55"/>
+      <c r="AH32" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="AI32" s="35"/>
-      <c r="AJ32" s="35"/>
-      <c r="AK32" s="35"/>
-    </row>
-    <row r="33" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="34"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="32"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="32"/>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="32"/>
-      <c r="AA33" s="32"/>
-      <c r="AB33" s="32"/>
-      <c r="AC33" s="32"/>
-      <c r="AD33" s="32"/>
-      <c r="AE33" s="32"/>
-      <c r="AF33" s="32"/>
-      <c r="AG33" s="32"/>
-      <c r="AH33" s="31"/>
-      <c r="AI33" s="31"/>
-      <c r="AJ33" s="31"/>
-      <c r="AK33" s="31"/>
-    </row>
-    <row r="34" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="34"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="33"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="32"/>
-      <c r="V34" s="32"/>
-      <c r="W34" s="32"/>
-      <c r="X34" s="32"/>
-      <c r="Y34" s="32"/>
-      <c r="Z34" s="32"/>
-      <c r="AA34" s="32"/>
-      <c r="AB34" s="32"/>
-      <c r="AC34" s="32"/>
-      <c r="AD34" s="32"/>
-      <c r="AE34" s="32"/>
-      <c r="AF34" s="32"/>
-      <c r="AG34" s="32"/>
-      <c r="AH34" s="31"/>
-      <c r="AI34" s="31"/>
-      <c r="AJ34" s="31"/>
-      <c r="AK34" s="31"/>
-    </row>
-    <row r="35" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="34"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
-      <c r="S35" s="32"/>
-      <c r="T35" s="32"/>
-      <c r="U35" s="32"/>
-      <c r="V35" s="32"/>
-      <c r="W35" s="32"/>
-      <c r="X35" s="32"/>
-      <c r="Y35" s="32"/>
-      <c r="Z35" s="32"/>
-      <c r="AA35" s="32"/>
-      <c r="AB35" s="32"/>
-      <c r="AC35" s="32"/>
-      <c r="AD35" s="32"/>
-      <c r="AE35" s="32"/>
-      <c r="AF35" s="32"/>
-      <c r="AG35" s="32"/>
-      <c r="AH35" s="31"/>
-      <c r="AI35" s="31"/>
-      <c r="AJ35" s="31"/>
-      <c r="AK35" s="31"/>
-    </row>
-    <row r="36" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="34"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="33"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="32"/>
-      <c r="U36" s="32"/>
-      <c r="V36" s="32"/>
-      <c r="W36" s="32"/>
-      <c r="X36" s="32"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="32"/>
-      <c r="AA36" s="32"/>
-      <c r="AB36" s="32"/>
-      <c r="AC36" s="32"/>
-      <c r="AD36" s="32"/>
-      <c r="AE36" s="32"/>
-      <c r="AF36" s="32"/>
-      <c r="AG36" s="32"/>
-      <c r="AH36" s="31"/>
-      <c r="AI36" s="31"/>
-      <c r="AJ36" s="31"/>
-      <c r="AK36" s="31"/>
-    </row>
-    <row r="37" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="34"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="33"/>
-      <c r="S37" s="32"/>
-      <c r="T37" s="32"/>
-      <c r="U37" s="32"/>
-      <c r="V37" s="32"/>
-      <c r="W37" s="32"/>
-      <c r="X37" s="32"/>
-      <c r="Y37" s="32"/>
-      <c r="Z37" s="32"/>
-      <c r="AA37" s="32"/>
-      <c r="AB37" s="32"/>
-      <c r="AC37" s="32"/>
-      <c r="AD37" s="32"/>
-      <c r="AE37" s="32"/>
-      <c r="AF37" s="32"/>
-      <c r="AG37" s="32"/>
-      <c r="AH37" s="31"/>
-      <c r="AI37" s="31"/>
-      <c r="AJ37" s="31"/>
-      <c r="AK37" s="31"/>
-    </row>
-    <row r="38" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="34"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="33"/>
-      <c r="S38" s="32"/>
-      <c r="T38" s="32"/>
-      <c r="U38" s="32"/>
-      <c r="V38" s="32"/>
-      <c r="W38" s="32"/>
-      <c r="X38" s="32"/>
-      <c r="Y38" s="32"/>
-      <c r="Z38" s="32"/>
-      <c r="AA38" s="32"/>
-      <c r="AB38" s="32"/>
-      <c r="AC38" s="32"/>
-      <c r="AD38" s="32"/>
-      <c r="AE38" s="32"/>
-      <c r="AF38" s="32"/>
-      <c r="AG38" s="32"/>
-      <c r="AH38" s="31"/>
-      <c r="AI38" s="31"/>
-      <c r="AJ38" s="31"/>
-      <c r="AK38" s="31"/>
-    </row>
-    <row r="39" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="34"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="32"/>
-      <c r="T39" s="32"/>
-      <c r="U39" s="32"/>
-      <c r="V39" s="32"/>
-      <c r="W39" s="32"/>
-      <c r="X39" s="32"/>
-      <c r="Y39" s="32"/>
-      <c r="Z39" s="32"/>
-      <c r="AA39" s="32"/>
-      <c r="AB39" s="32"/>
-      <c r="AC39" s="32"/>
-      <c r="AD39" s="32"/>
-      <c r="AE39" s="32"/>
-      <c r="AF39" s="32"/>
-      <c r="AG39" s="32"/>
-      <c r="AH39" s="31"/>
-      <c r="AI39" s="31"/>
-      <c r="AJ39" s="31"/>
-      <c r="AK39" s="31"/>
-    </row>
-    <row r="40" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="34"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="33"/>
-      <c r="O40" s="33"/>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="33"/>
-      <c r="R40" s="33"/>
-      <c r="S40" s="32"/>
-      <c r="T40" s="32"/>
-      <c r="U40" s="32"/>
-      <c r="V40" s="32"/>
-      <c r="W40" s="32"/>
-      <c r="X40" s="32"/>
-      <c r="Y40" s="32"/>
-      <c r="Z40" s="32"/>
-      <c r="AA40" s="32"/>
-      <c r="AB40" s="32"/>
-      <c r="AC40" s="32"/>
-      <c r="AD40" s="32"/>
-      <c r="AE40" s="32"/>
-      <c r="AF40" s="32"/>
-      <c r="AG40" s="32"/>
-      <c r="AH40" s="31"/>
-      <c r="AI40" s="31"/>
-      <c r="AJ40" s="31"/>
-      <c r="AK40" s="31"/>
-    </row>
-    <row r="41" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="33"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="33"/>
-      <c r="S41" s="32"/>
-      <c r="T41" s="32"/>
-      <c r="U41" s="32"/>
-      <c r="V41" s="32"/>
-      <c r="W41" s="32"/>
-      <c r="X41" s="32"/>
-      <c r="Y41" s="32"/>
-      <c r="Z41" s="32"/>
-      <c r="AA41" s="32"/>
-      <c r="AB41" s="32"/>
-      <c r="AC41" s="32"/>
-      <c r="AD41" s="32"/>
-      <c r="AE41" s="32"/>
-      <c r="AF41" s="32"/>
-      <c r="AG41" s="32"/>
-      <c r="AH41" s="31"/>
-      <c r="AI41" s="31"/>
-      <c r="AJ41" s="31"/>
-      <c r="AK41" s="31"/>
-    </row>
-    <row r="42" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
-      <c r="M42" s="33"/>
-      <c r="N42" s="33"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="33"/>
-      <c r="Q42" s="33"/>
-      <c r="R42" s="33"/>
-      <c r="S42" s="32"/>
-      <c r="T42" s="32"/>
-      <c r="U42" s="32"/>
-      <c r="V42" s="32"/>
-      <c r="W42" s="32"/>
-      <c r="X42" s="32"/>
-      <c r="Y42" s="32"/>
-      <c r="Z42" s="32"/>
-      <c r="AA42" s="32"/>
-      <c r="AB42" s="32"/>
-      <c r="AC42" s="32"/>
-      <c r="AD42" s="32"/>
-      <c r="AE42" s="32"/>
-      <c r="AF42" s="32"/>
-      <c r="AG42" s="32"/>
-      <c r="AH42" s="31"/>
-      <c r="AI42" s="31"/>
-      <c r="AJ42" s="31"/>
-      <c r="AK42" s="31"/>
-    </row>
-    <row r="43" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="33"/>
-      <c r="N43" s="33"/>
-      <c r="O43" s="33"/>
-      <c r="P43" s="33"/>
-      <c r="Q43" s="33"/>
-      <c r="R43" s="33"/>
-      <c r="S43" s="32"/>
-      <c r="T43" s="32"/>
-      <c r="U43" s="32"/>
-      <c r="V43" s="32"/>
-      <c r="W43" s="32"/>
-      <c r="X43" s="32"/>
-      <c r="Y43" s="32"/>
-      <c r="Z43" s="32"/>
-      <c r="AA43" s="32"/>
-      <c r="AB43" s="32"/>
-      <c r="AC43" s="32"/>
-      <c r="AD43" s="32"/>
-      <c r="AE43" s="32"/>
-      <c r="AF43" s="32"/>
-      <c r="AG43" s="32"/>
-      <c r="AH43" s="31"/>
-      <c r="AI43" s="31"/>
-      <c r="AJ43" s="31"/>
-      <c r="AK43" s="31"/>
-    </row>
-    <row r="44" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="33"/>
-      <c r="M44" s="33"/>
-      <c r="N44" s="33"/>
-      <c r="O44" s="33"/>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="33"/>
-      <c r="R44" s="33"/>
-      <c r="S44" s="32"/>
-      <c r="T44" s="32"/>
-      <c r="U44" s="32"/>
-      <c r="V44" s="32"/>
-      <c r="W44" s="32"/>
-      <c r="X44" s="32"/>
-      <c r="Y44" s="32"/>
-      <c r="Z44" s="32"/>
-      <c r="AA44" s="32"/>
-      <c r="AB44" s="32"/>
-      <c r="AC44" s="32"/>
-      <c r="AD44" s="32"/>
-      <c r="AE44" s="32"/>
-      <c r="AF44" s="32"/>
-      <c r="AG44" s="32"/>
-      <c r="AH44" s="31"/>
-      <c r="AI44" s="31"/>
-      <c r="AJ44" s="31"/>
-      <c r="AK44" s="31"/>
-    </row>
-    <row r="45" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="33"/>
-      <c r="O45" s="33"/>
-      <c r="P45" s="33"/>
-      <c r="Q45" s="33"/>
-      <c r="R45" s="33"/>
-      <c r="S45" s="32"/>
-      <c r="T45" s="32"/>
-      <c r="U45" s="32"/>
-      <c r="V45" s="32"/>
-      <c r="W45" s="32"/>
-      <c r="X45" s="32"/>
-      <c r="Y45" s="32"/>
-      <c r="Z45" s="32"/>
-      <c r="AA45" s="32"/>
-      <c r="AB45" s="32"/>
-      <c r="AC45" s="32"/>
-      <c r="AD45" s="32"/>
-      <c r="AE45" s="32"/>
-      <c r="AF45" s="32"/>
-      <c r="AG45" s="32"/>
-      <c r="AH45" s="31"/>
-      <c r="AI45" s="31"/>
-      <c r="AJ45" s="31"/>
-      <c r="AK45" s="31"/>
-    </row>
-    <row r="46" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="33"/>
-      <c r="N46" s="33"/>
-      <c r="O46" s="33"/>
-      <c r="P46" s="33"/>
-      <c r="Q46" s="33"/>
-      <c r="R46" s="33"/>
-      <c r="S46" s="32"/>
-      <c r="T46" s="32"/>
-      <c r="U46" s="32"/>
-      <c r="V46" s="32"/>
-      <c r="W46" s="32"/>
-      <c r="X46" s="32"/>
-      <c r="Y46" s="32"/>
-      <c r="Z46" s="32"/>
-      <c r="AA46" s="32"/>
-      <c r="AB46" s="32"/>
-      <c r="AC46" s="32"/>
-      <c r="AD46" s="32"/>
-      <c r="AE46" s="32"/>
-      <c r="AF46" s="32"/>
-      <c r="AG46" s="32"/>
-      <c r="AH46" s="31"/>
-      <c r="AI46" s="31"/>
-      <c r="AJ46" s="31"/>
-      <c r="AK46" s="31"/>
-    </row>
-    <row r="47" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="33"/>
-      <c r="N47" s="33"/>
-      <c r="O47" s="33"/>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="33"/>
-      <c r="R47" s="33"/>
-      <c r="S47" s="32"/>
-      <c r="T47" s="32"/>
-      <c r="U47" s="32"/>
-      <c r="V47" s="32"/>
-      <c r="W47" s="32"/>
-      <c r="X47" s="32"/>
-      <c r="Y47" s="32"/>
-      <c r="Z47" s="32"/>
-      <c r="AA47" s="32"/>
-      <c r="AB47" s="32"/>
-      <c r="AC47" s="32"/>
-      <c r="AD47" s="32"/>
-      <c r="AE47" s="32"/>
-      <c r="AF47" s="32"/>
-      <c r="AG47" s="32"/>
-      <c r="AH47" s="31"/>
-      <c r="AI47" s="31"/>
-      <c r="AJ47" s="31"/>
-      <c r="AK47" s="31"/>
-    </row>
-    <row r="48" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="33"/>
-      <c r="N48" s="33"/>
-      <c r="O48" s="33"/>
-      <c r="P48" s="33"/>
-      <c r="Q48" s="33"/>
-      <c r="R48" s="33"/>
-      <c r="S48" s="32"/>
-      <c r="T48" s="32"/>
-      <c r="U48" s="32"/>
-      <c r="V48" s="32"/>
-      <c r="W48" s="32"/>
-      <c r="X48" s="32"/>
-      <c r="Y48" s="32"/>
-      <c r="Z48" s="32"/>
-      <c r="AA48" s="32"/>
-      <c r="AB48" s="32"/>
-      <c r="AC48" s="32"/>
-      <c r="AD48" s="32"/>
-      <c r="AE48" s="32"/>
-      <c r="AF48" s="32"/>
-      <c r="AG48" s="32"/>
-      <c r="AH48" s="31"/>
-      <c r="AI48" s="31"/>
-      <c r="AJ48" s="31"/>
-      <c r="AK48" s="31"/>
-    </row>
-    <row r="49" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="33"/>
-      <c r="M49" s="33"/>
-      <c r="N49" s="33"/>
-      <c r="O49" s="33"/>
-      <c r="P49" s="33"/>
-      <c r="Q49" s="33"/>
-      <c r="R49" s="33"/>
-      <c r="S49" s="32"/>
-      <c r="T49" s="32"/>
-      <c r="U49" s="32"/>
-      <c r="V49" s="32"/>
-      <c r="W49" s="32"/>
-      <c r="X49" s="32"/>
-      <c r="Y49" s="32"/>
-      <c r="Z49" s="32"/>
-      <c r="AA49" s="32"/>
-      <c r="AB49" s="32"/>
-      <c r="AC49" s="32"/>
-      <c r="AD49" s="32"/>
-      <c r="AE49" s="32"/>
-      <c r="AF49" s="32"/>
-      <c r="AG49" s="32"/>
-      <c r="AH49" s="31"/>
-      <c r="AI49" s="31"/>
-      <c r="AJ49" s="31"/>
-      <c r="AK49" s="31"/>
-    </row>
-    <row r="50" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="33"/>
-      <c r="N50" s="33"/>
-      <c r="O50" s="33"/>
-      <c r="P50" s="33"/>
-      <c r="Q50" s="33"/>
-      <c r="R50" s="33"/>
-      <c r="S50" s="32"/>
-      <c r="T50" s="32"/>
-      <c r="U50" s="32"/>
-      <c r="V50" s="32"/>
-      <c r="W50" s="32"/>
-      <c r="X50" s="32"/>
-      <c r="Y50" s="32"/>
-      <c r="Z50" s="32"/>
-      <c r="AA50" s="32"/>
-      <c r="AB50" s="32"/>
-      <c r="AC50" s="32"/>
-      <c r="AD50" s="32"/>
-      <c r="AE50" s="32"/>
-      <c r="AF50" s="32"/>
-      <c r="AG50" s="32"/>
-      <c r="AH50" s="31"/>
-      <c r="AI50" s="31"/>
-      <c r="AJ50" s="31"/>
-      <c r="AK50" s="31"/>
-    </row>
-    <row r="51" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="33"/>
-      <c r="N51" s="33"/>
-      <c r="O51" s="33"/>
-      <c r="P51" s="33"/>
-      <c r="Q51" s="33"/>
-      <c r="R51" s="33"/>
-      <c r="S51" s="32"/>
-      <c r="T51" s="32"/>
-      <c r="U51" s="32"/>
-      <c r="V51" s="32"/>
-      <c r="W51" s="32"/>
-      <c r="X51" s="32"/>
-      <c r="Y51" s="32"/>
-      <c r="Z51" s="32"/>
-      <c r="AA51" s="32"/>
-      <c r="AB51" s="32"/>
-      <c r="AC51" s="32"/>
-      <c r="AD51" s="32"/>
-      <c r="AE51" s="32"/>
-      <c r="AF51" s="32"/>
-      <c r="AG51" s="32"/>
-      <c r="AH51" s="31"/>
-      <c r="AI51" s="31"/>
-      <c r="AJ51" s="31"/>
-      <c r="AK51" s="31"/>
-    </row>
-    <row r="52" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="33"/>
-      <c r="M52" s="33"/>
-      <c r="N52" s="33"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="33"/>
-      <c r="R52" s="33"/>
-      <c r="S52" s="32"/>
-      <c r="T52" s="32"/>
-      <c r="U52" s="32"/>
-      <c r="V52" s="32"/>
-      <c r="W52" s="32"/>
-      <c r="X52" s="32"/>
-      <c r="Y52" s="32"/>
-      <c r="Z52" s="32"/>
-      <c r="AA52" s="32"/>
-      <c r="AB52" s="32"/>
-      <c r="AC52" s="32"/>
-      <c r="AD52" s="32"/>
-      <c r="AE52" s="32"/>
-      <c r="AF52" s="32"/>
-      <c r="AG52" s="32"/>
-      <c r="AH52" s="31"/>
-      <c r="AI52" s="31"/>
-      <c r="AJ52" s="31"/>
-      <c r="AK52" s="31"/>
-    </row>
-    <row r="53" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="32"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="33"/>
-      <c r="M53" s="33"/>
-      <c r="N53" s="33"/>
-      <c r="O53" s="33"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="33"/>
-      <c r="S53" s="32"/>
-      <c r="T53" s="32"/>
-      <c r="U53" s="32"/>
-      <c r="V53" s="32"/>
-      <c r="W53" s="32"/>
-      <c r="X53" s="32"/>
-      <c r="Y53" s="32"/>
-      <c r="Z53" s="32"/>
-      <c r="AA53" s="32"/>
-      <c r="AB53" s="32"/>
-      <c r="AC53" s="32"/>
-      <c r="AD53" s="32"/>
-      <c r="AE53" s="32"/>
-      <c r="AF53" s="32"/>
-      <c r="AG53" s="32"/>
-      <c r="AH53" s="31"/>
-      <c r="AI53" s="31"/>
-      <c r="AJ53" s="31"/>
-      <c r="AK53" s="31"/>
-    </row>
-    <row r="54" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="33"/>
-      <c r="M54" s="33"/>
-      <c r="N54" s="33"/>
-      <c r="O54" s="33"/>
-      <c r="P54" s="33"/>
-      <c r="Q54" s="33"/>
-      <c r="R54" s="33"/>
-      <c r="S54" s="32"/>
-      <c r="T54" s="32"/>
-      <c r="U54" s="32"/>
-      <c r="V54" s="32"/>
-      <c r="W54" s="32"/>
-      <c r="X54" s="32"/>
-      <c r="Y54" s="32"/>
-      <c r="Z54" s="32"/>
-      <c r="AA54" s="32"/>
-      <c r="AB54" s="32"/>
-      <c r="AC54" s="32"/>
-      <c r="AD54" s="32"/>
-      <c r="AE54" s="32"/>
-      <c r="AF54" s="32"/>
-      <c r="AG54" s="32"/>
-      <c r="AH54" s="31"/>
-      <c r="AI54" s="31"/>
-      <c r="AJ54" s="31"/>
-      <c r="AK54" s="31"/>
+      <c r="AI32" s="46"/>
+      <c r="AJ32" s="46"/>
+      <c r="AK32" s="46"/>
+    </row>
+    <row r="33" spans="2:37" ht="21.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="39"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="56"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="40"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="40"/>
+      <c r="W33" s="40"/>
+      <c r="X33" s="40"/>
+      <c r="Y33" s="40"/>
+      <c r="Z33" s="40"/>
+      <c r="AA33" s="40"/>
+      <c r="AB33" s="40"/>
+      <c r="AC33" s="40"/>
+      <c r="AD33" s="40"/>
+      <c r="AE33" s="40"/>
+      <c r="AF33" s="40"/>
+      <c r="AG33" s="40"/>
+      <c r="AH33" s="54"/>
+      <c r="AI33" s="54"/>
+      <c r="AJ33" s="54"/>
+      <c r="AK33" s="54"/>
+    </row>
+    <row r="34" spans="2:37" ht="21.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="56"/>
+      <c r="R34" s="56"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="40"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="40"/>
+      <c r="X34" s="40"/>
+      <c r="Y34" s="40"/>
+      <c r="Z34" s="40"/>
+      <c r="AA34" s="40"/>
+      <c r="AB34" s="40"/>
+      <c r="AC34" s="40"/>
+      <c r="AD34" s="40"/>
+      <c r="AE34" s="40"/>
+      <c r="AF34" s="40"/>
+      <c r="AG34" s="40"/>
+      <c r="AH34" s="54"/>
+      <c r="AI34" s="54"/>
+      <c r="AJ34" s="54"/>
+      <c r="AK34" s="54"/>
+    </row>
+    <row r="35" spans="2:37" ht="21.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="39"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="40"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="40"/>
+      <c r="X35" s="40"/>
+      <c r="Y35" s="40"/>
+      <c r="Z35" s="40"/>
+      <c r="AA35" s="40"/>
+      <c r="AB35" s="40"/>
+      <c r="AC35" s="40"/>
+      <c r="AD35" s="40"/>
+      <c r="AE35" s="40"/>
+      <c r="AF35" s="40"/>
+      <c r="AG35" s="40"/>
+      <c r="AH35" s="54"/>
+      <c r="AI35" s="54"/>
+      <c r="AJ35" s="54"/>
+      <c r="AK35" s="54"/>
+    </row>
+    <row r="36" spans="2:37" ht="21.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="39"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="56"/>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="56"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="40"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="40"/>
+      <c r="W36" s="40"/>
+      <c r="X36" s="40"/>
+      <c r="Y36" s="40"/>
+      <c r="Z36" s="40"/>
+      <c r="AA36" s="40"/>
+      <c r="AB36" s="40"/>
+      <c r="AC36" s="40"/>
+      <c r="AD36" s="40"/>
+      <c r="AE36" s="40"/>
+      <c r="AF36" s="40"/>
+      <c r="AG36" s="40"/>
+      <c r="AH36" s="54"/>
+      <c r="AI36" s="54"/>
+      <c r="AJ36" s="54"/>
+      <c r="AK36" s="54"/>
+    </row>
+    <row r="37" spans="2:37" ht="21.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="39"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="56"/>
+      <c r="O37" s="56"/>
+      <c r="P37" s="56"/>
+      <c r="Q37" s="56"/>
+      <c r="R37" s="56"/>
+      <c r="S37" s="40"/>
+      <c r="T37" s="40"/>
+      <c r="U37" s="40"/>
+      <c r="V37" s="40"/>
+      <c r="W37" s="40"/>
+      <c r="X37" s="40"/>
+      <c r="Y37" s="40"/>
+      <c r="Z37" s="40"/>
+      <c r="AA37" s="40"/>
+      <c r="AB37" s="40"/>
+      <c r="AC37" s="40"/>
+      <c r="AD37" s="40"/>
+      <c r="AE37" s="40"/>
+      <c r="AF37" s="40"/>
+      <c r="AG37" s="40"/>
+      <c r="AH37" s="54"/>
+      <c r="AI37" s="54"/>
+      <c r="AJ37" s="54"/>
+      <c r="AK37" s="54"/>
+    </row>
+    <row r="38" spans="2:37" ht="21.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="39"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="56"/>
+      <c r="P38" s="56"/>
+      <c r="Q38" s="56"/>
+      <c r="R38" s="56"/>
+      <c r="S38" s="40"/>
+      <c r="T38" s="40"/>
+      <c r="U38" s="40"/>
+      <c r="V38" s="40"/>
+      <c r="W38" s="40"/>
+      <c r="X38" s="40"/>
+      <c r="Y38" s="40"/>
+      <c r="Z38" s="40"/>
+      <c r="AA38" s="40"/>
+      <c r="AB38" s="40"/>
+      <c r="AC38" s="40"/>
+      <c r="AD38" s="40"/>
+      <c r="AE38" s="40"/>
+      <c r="AF38" s="40"/>
+      <c r="AG38" s="40"/>
+      <c r="AH38" s="54"/>
+      <c r="AI38" s="54"/>
+      <c r="AJ38" s="54"/>
+      <c r="AK38" s="54"/>
+    </row>
+    <row r="39" spans="2:37" ht="21.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="39"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="56"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="40"/>
+      <c r="T39" s="40"/>
+      <c r="U39" s="40"/>
+      <c r="V39" s="40"/>
+      <c r="W39" s="40"/>
+      <c r="X39" s="40"/>
+      <c r="Y39" s="40"/>
+      <c r="Z39" s="40"/>
+      <c r="AA39" s="40"/>
+      <c r="AB39" s="40"/>
+      <c r="AC39" s="40"/>
+      <c r="AD39" s="40"/>
+      <c r="AE39" s="40"/>
+      <c r="AF39" s="40"/>
+      <c r="AG39" s="40"/>
+      <c r="AH39" s="54"/>
+      <c r="AI39" s="54"/>
+      <c r="AJ39" s="54"/>
+      <c r="AK39" s="54"/>
+    </row>
+    <row r="40" spans="2:37" ht="21.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="39"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="56"/>
+      <c r="P40" s="56"/>
+      <c r="Q40" s="56"/>
+      <c r="R40" s="56"/>
+      <c r="S40" s="40"/>
+      <c r="T40" s="40"/>
+      <c r="U40" s="40"/>
+      <c r="V40" s="40"/>
+      <c r="W40" s="40"/>
+      <c r="X40" s="40"/>
+      <c r="Y40" s="40"/>
+      <c r="Z40" s="40"/>
+      <c r="AA40" s="40"/>
+      <c r="AB40" s="40"/>
+      <c r="AC40" s="40"/>
+      <c r="AD40" s="40"/>
+      <c r="AE40" s="40"/>
+      <c r="AF40" s="40"/>
+      <c r="AG40" s="40"/>
+      <c r="AH40" s="54"/>
+      <c r="AI40" s="54"/>
+      <c r="AJ40" s="54"/>
+      <c r="AK40" s="54"/>
+    </row>
+    <row r="41" spans="2:37" ht="21.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="56"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="56"/>
+      <c r="O41" s="56"/>
+      <c r="P41" s="56"/>
+      <c r="Q41" s="56"/>
+      <c r="R41" s="56"/>
+      <c r="S41" s="40"/>
+      <c r="T41" s="40"/>
+      <c r="U41" s="40"/>
+      <c r="V41" s="40"/>
+      <c r="W41" s="40"/>
+      <c r="X41" s="40"/>
+      <c r="Y41" s="40"/>
+      <c r="Z41" s="40"/>
+      <c r="AA41" s="40"/>
+      <c r="AB41" s="40"/>
+      <c r="AC41" s="40"/>
+      <c r="AD41" s="40"/>
+      <c r="AE41" s="40"/>
+      <c r="AF41" s="40"/>
+      <c r="AG41" s="40"/>
+      <c r="AH41" s="54"/>
+      <c r="AI41" s="54"/>
+      <c r="AJ41" s="54"/>
+      <c r="AK41" s="54"/>
+    </row>
+    <row r="42" spans="2:37" ht="21.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="56"/>
+      <c r="O42" s="56"/>
+      <c r="P42" s="56"/>
+      <c r="Q42" s="56"/>
+      <c r="R42" s="56"/>
+      <c r="S42" s="40"/>
+      <c r="T42" s="40"/>
+      <c r="U42" s="40"/>
+      <c r="V42" s="40"/>
+      <c r="W42" s="40"/>
+      <c r="X42" s="40"/>
+      <c r="Y42" s="40"/>
+      <c r="Z42" s="40"/>
+      <c r="AA42" s="40"/>
+      <c r="AB42" s="40"/>
+      <c r="AC42" s="40"/>
+      <c r="AD42" s="40"/>
+      <c r="AE42" s="40"/>
+      <c r="AF42" s="40"/>
+      <c r="AG42" s="40"/>
+      <c r="AH42" s="54"/>
+      <c r="AI42" s="54"/>
+      <c r="AJ42" s="54"/>
+      <c r="AK42" s="54"/>
+    </row>
+    <row r="43" spans="2:37" ht="21.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="56"/>
+      <c r="L43" s="56"/>
+      <c r="M43" s="56"/>
+      <c r="N43" s="56"/>
+      <c r="O43" s="56"/>
+      <c r="P43" s="56"/>
+      <c r="Q43" s="56"/>
+      <c r="R43" s="56"/>
+      <c r="S43" s="40"/>
+      <c r="T43" s="40"/>
+      <c r="U43" s="40"/>
+      <c r="V43" s="40"/>
+      <c r="W43" s="40"/>
+      <c r="X43" s="40"/>
+      <c r="Y43" s="40"/>
+      <c r="Z43" s="40"/>
+      <c r="AA43" s="40"/>
+      <c r="AB43" s="40"/>
+      <c r="AC43" s="40"/>
+      <c r="AD43" s="40"/>
+      <c r="AE43" s="40"/>
+      <c r="AF43" s="40"/>
+      <c r="AG43" s="40"/>
+      <c r="AH43" s="54"/>
+      <c r="AI43" s="54"/>
+      <c r="AJ43" s="54"/>
+      <c r="AK43" s="54"/>
+    </row>
+    <row r="44" spans="2:37" ht="21.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="56"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="56"/>
+      <c r="N44" s="56"/>
+      <c r="O44" s="56"/>
+      <c r="P44" s="56"/>
+      <c r="Q44" s="56"/>
+      <c r="R44" s="56"/>
+      <c r="S44" s="40"/>
+      <c r="T44" s="40"/>
+      <c r="U44" s="40"/>
+      <c r="V44" s="40"/>
+      <c r="W44" s="40"/>
+      <c r="X44" s="40"/>
+      <c r="Y44" s="40"/>
+      <c r="Z44" s="40"/>
+      <c r="AA44" s="40"/>
+      <c r="AB44" s="40"/>
+      <c r="AC44" s="40"/>
+      <c r="AD44" s="40"/>
+      <c r="AE44" s="40"/>
+      <c r="AF44" s="40"/>
+      <c r="AG44" s="40"/>
+      <c r="AH44" s="54"/>
+      <c r="AI44" s="54"/>
+      <c r="AJ44" s="54"/>
+      <c r="AK44" s="54"/>
+    </row>
+    <row r="45" spans="2:37" ht="21.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="56"/>
+      <c r="O45" s="56"/>
+      <c r="P45" s="56"/>
+      <c r="Q45" s="56"/>
+      <c r="R45" s="56"/>
+      <c r="S45" s="40"/>
+      <c r="T45" s="40"/>
+      <c r="U45" s="40"/>
+      <c r="V45" s="40"/>
+      <c r="W45" s="40"/>
+      <c r="X45" s="40"/>
+      <c r="Y45" s="40"/>
+      <c r="Z45" s="40"/>
+      <c r="AA45" s="40"/>
+      <c r="AB45" s="40"/>
+      <c r="AC45" s="40"/>
+      <c r="AD45" s="40"/>
+      <c r="AE45" s="40"/>
+      <c r="AF45" s="40"/>
+      <c r="AG45" s="40"/>
+      <c r="AH45" s="54"/>
+      <c r="AI45" s="54"/>
+      <c r="AJ45" s="54"/>
+      <c r="AK45" s="54"/>
+    </row>
+    <row r="46" spans="2:37" ht="21.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="56"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="56"/>
+      <c r="M46" s="56"/>
+      <c r="N46" s="56"/>
+      <c r="O46" s="56"/>
+      <c r="P46" s="56"/>
+      <c r="Q46" s="56"/>
+      <c r="R46" s="56"/>
+      <c r="S46" s="40"/>
+      <c r="T46" s="40"/>
+      <c r="U46" s="40"/>
+      <c r="V46" s="40"/>
+      <c r="W46" s="40"/>
+      <c r="X46" s="40"/>
+      <c r="Y46" s="40"/>
+      <c r="Z46" s="40"/>
+      <c r="AA46" s="40"/>
+      <c r="AB46" s="40"/>
+      <c r="AC46" s="40"/>
+      <c r="AD46" s="40"/>
+      <c r="AE46" s="40"/>
+      <c r="AF46" s="40"/>
+      <c r="AG46" s="40"/>
+      <c r="AH46" s="54"/>
+      <c r="AI46" s="54"/>
+      <c r="AJ46" s="54"/>
+      <c r="AK46" s="54"/>
+    </row>
+    <row r="47" spans="2:37" ht="21.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="56"/>
+      <c r="N47" s="56"/>
+      <c r="O47" s="56"/>
+      <c r="P47" s="56"/>
+      <c r="Q47" s="56"/>
+      <c r="R47" s="56"/>
+      <c r="S47" s="40"/>
+      <c r="T47" s="40"/>
+      <c r="U47" s="40"/>
+      <c r="V47" s="40"/>
+      <c r="W47" s="40"/>
+      <c r="X47" s="40"/>
+      <c r="Y47" s="40"/>
+      <c r="Z47" s="40"/>
+      <c r="AA47" s="40"/>
+      <c r="AB47" s="40"/>
+      <c r="AC47" s="40"/>
+      <c r="AD47" s="40"/>
+      <c r="AE47" s="40"/>
+      <c r="AF47" s="40"/>
+      <c r="AG47" s="40"/>
+      <c r="AH47" s="54"/>
+      <c r="AI47" s="54"/>
+      <c r="AJ47" s="54"/>
+      <c r="AK47" s="54"/>
+    </row>
+    <row r="48" spans="2:37" ht="21.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="56"/>
+      <c r="N48" s="56"/>
+      <c r="O48" s="56"/>
+      <c r="P48" s="56"/>
+      <c r="Q48" s="56"/>
+      <c r="R48" s="56"/>
+      <c r="S48" s="40"/>
+      <c r="T48" s="40"/>
+      <c r="U48" s="40"/>
+      <c r="V48" s="40"/>
+      <c r="W48" s="40"/>
+      <c r="X48" s="40"/>
+      <c r="Y48" s="40"/>
+      <c r="Z48" s="40"/>
+      <c r="AA48" s="40"/>
+      <c r="AB48" s="40"/>
+      <c r="AC48" s="40"/>
+      <c r="AD48" s="40"/>
+      <c r="AE48" s="40"/>
+      <c r="AF48" s="40"/>
+      <c r="AG48" s="40"/>
+      <c r="AH48" s="54"/>
+      <c r="AI48" s="54"/>
+      <c r="AJ48" s="54"/>
+      <c r="AK48" s="54"/>
+    </row>
+    <row r="49" spans="2:37" ht="21.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="56"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="56"/>
+      <c r="M49" s="56"/>
+      <c r="N49" s="56"/>
+      <c r="O49" s="56"/>
+      <c r="P49" s="56"/>
+      <c r="Q49" s="56"/>
+      <c r="R49" s="56"/>
+      <c r="S49" s="40"/>
+      <c r="T49" s="40"/>
+      <c r="U49" s="40"/>
+      <c r="V49" s="40"/>
+      <c r="W49" s="40"/>
+      <c r="X49" s="40"/>
+      <c r="Y49" s="40"/>
+      <c r="Z49" s="40"/>
+      <c r="AA49" s="40"/>
+      <c r="AB49" s="40"/>
+      <c r="AC49" s="40"/>
+      <c r="AD49" s="40"/>
+      <c r="AE49" s="40"/>
+      <c r="AF49" s="40"/>
+      <c r="AG49" s="40"/>
+      <c r="AH49" s="54"/>
+      <c r="AI49" s="54"/>
+      <c r="AJ49" s="54"/>
+      <c r="AK49" s="54"/>
+    </row>
+    <row r="50" spans="2:37" ht="21.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="56"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="56"/>
+      <c r="N50" s="56"/>
+      <c r="O50" s="56"/>
+      <c r="P50" s="56"/>
+      <c r="Q50" s="56"/>
+      <c r="R50" s="56"/>
+      <c r="S50" s="40"/>
+      <c r="T50" s="40"/>
+      <c r="U50" s="40"/>
+      <c r="V50" s="40"/>
+      <c r="W50" s="40"/>
+      <c r="X50" s="40"/>
+      <c r="Y50" s="40"/>
+      <c r="Z50" s="40"/>
+      <c r="AA50" s="40"/>
+      <c r="AB50" s="40"/>
+      <c r="AC50" s="40"/>
+      <c r="AD50" s="40"/>
+      <c r="AE50" s="40"/>
+      <c r="AF50" s="40"/>
+      <c r="AG50" s="40"/>
+      <c r="AH50" s="54"/>
+      <c r="AI50" s="54"/>
+      <c r="AJ50" s="54"/>
+      <c r="AK50" s="54"/>
+    </row>
+    <row r="51" spans="2:37" ht="21.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="56"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="56"/>
+      <c r="M51" s="56"/>
+      <c r="N51" s="56"/>
+      <c r="O51" s="56"/>
+      <c r="P51" s="56"/>
+      <c r="Q51" s="56"/>
+      <c r="R51" s="56"/>
+      <c r="S51" s="40"/>
+      <c r="T51" s="40"/>
+      <c r="U51" s="40"/>
+      <c r="V51" s="40"/>
+      <c r="W51" s="40"/>
+      <c r="X51" s="40"/>
+      <c r="Y51" s="40"/>
+      <c r="Z51" s="40"/>
+      <c r="AA51" s="40"/>
+      <c r="AB51" s="40"/>
+      <c r="AC51" s="40"/>
+      <c r="AD51" s="40"/>
+      <c r="AE51" s="40"/>
+      <c r="AF51" s="40"/>
+      <c r="AG51" s="40"/>
+      <c r="AH51" s="54"/>
+      <c r="AI51" s="54"/>
+      <c r="AJ51" s="54"/>
+      <c r="AK51" s="54"/>
+    </row>
+    <row r="52" spans="2:37" ht="21.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="56"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="56"/>
+      <c r="M52" s="56"/>
+      <c r="N52" s="56"/>
+      <c r="O52" s="56"/>
+      <c r="P52" s="56"/>
+      <c r="Q52" s="56"/>
+      <c r="R52" s="56"/>
+      <c r="S52" s="40"/>
+      <c r="T52" s="40"/>
+      <c r="U52" s="40"/>
+      <c r="V52" s="40"/>
+      <c r="W52" s="40"/>
+      <c r="X52" s="40"/>
+      <c r="Y52" s="40"/>
+      <c r="Z52" s="40"/>
+      <c r="AA52" s="40"/>
+      <c r="AB52" s="40"/>
+      <c r="AC52" s="40"/>
+      <c r="AD52" s="40"/>
+      <c r="AE52" s="40"/>
+      <c r="AF52" s="40"/>
+      <c r="AG52" s="40"/>
+      <c r="AH52" s="54"/>
+      <c r="AI52" s="54"/>
+      <c r="AJ52" s="54"/>
+      <c r="AK52" s="54"/>
+    </row>
+    <row r="53" spans="2:37" ht="21.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="56"/>
+      <c r="K53" s="56"/>
+      <c r="L53" s="56"/>
+      <c r="M53" s="56"/>
+      <c r="N53" s="56"/>
+      <c r="O53" s="56"/>
+      <c r="P53" s="56"/>
+      <c r="Q53" s="56"/>
+      <c r="R53" s="56"/>
+      <c r="S53" s="40"/>
+      <c r="T53" s="40"/>
+      <c r="U53" s="40"/>
+      <c r="V53" s="40"/>
+      <c r="W53" s="40"/>
+      <c r="X53" s="40"/>
+      <c r="Y53" s="40"/>
+      <c r="Z53" s="40"/>
+      <c r="AA53" s="40"/>
+      <c r="AB53" s="40"/>
+      <c r="AC53" s="40"/>
+      <c r="AD53" s="40"/>
+      <c r="AE53" s="40"/>
+      <c r="AF53" s="40"/>
+      <c r="AG53" s="40"/>
+      <c r="AH53" s="54"/>
+      <c r="AI53" s="54"/>
+      <c r="AJ53" s="54"/>
+      <c r="AK53" s="54"/>
+    </row>
+    <row r="54" spans="2:37" ht="21.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="56"/>
+      <c r="K54" s="56"/>
+      <c r="L54" s="56"/>
+      <c r="M54" s="56"/>
+      <c r="N54" s="56"/>
+      <c r="O54" s="56"/>
+      <c r="P54" s="56"/>
+      <c r="Q54" s="56"/>
+      <c r="R54" s="56"/>
+      <c r="S54" s="40"/>
+      <c r="T54" s="40"/>
+      <c r="U54" s="40"/>
+      <c r="V54" s="40"/>
+      <c r="W54" s="40"/>
+      <c r="X54" s="40"/>
+      <c r="Y54" s="40"/>
+      <c r="Z54" s="40"/>
+      <c r="AA54" s="40"/>
+      <c r="AB54" s="40"/>
+      <c r="AC54" s="40"/>
+      <c r="AD54" s="40"/>
+      <c r="AE54" s="40"/>
+      <c r="AF54" s="40"/>
+      <c r="AG54" s="40"/>
+      <c r="AH54" s="54"/>
+      <c r="AI54" s="54"/>
+      <c r="AJ54" s="54"/>
+      <c r="AK54" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="225">
-    <mergeCell ref="AG2:AJ2"/>
-    <mergeCell ref="H5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:AC5"/>
-    <mergeCell ref="AH5:AK5"/>
-    <mergeCell ref="E6:Q6"/>
-    <mergeCell ref="U6:Z6"/>
-    <mergeCell ref="AH6:AK6"/>
-    <mergeCell ref="AH24:AK24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="Z25:AG25"/>
-    <mergeCell ref="AH25:AK25"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:W24"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="Z24:AG24"/>
-    <mergeCell ref="AH26:AK26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="Z27:AG27"/>
-    <mergeCell ref="AH27:AK27"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="Z26:AG26"/>
-    <mergeCell ref="AH28:AK28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="Z29:AG29"/>
-    <mergeCell ref="AH29:AK29"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="Z28:AG28"/>
-    <mergeCell ref="AH30:AK30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="Z31:AG31"/>
-    <mergeCell ref="AH31:AK31"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="Z30:AG30"/>
-    <mergeCell ref="AH32:AK32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="Z33:AG33"/>
-    <mergeCell ref="AH33:AK33"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="Z32:AG32"/>
-    <mergeCell ref="AH34:AK34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:R35"/>
-    <mergeCell ref="S35:U35"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="X35:Y35"/>
-    <mergeCell ref="Z35:AG35"/>
-    <mergeCell ref="AH35:AK35"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="X34:Y34"/>
-    <mergeCell ref="Z34:AG34"/>
-    <mergeCell ref="AH36:AK36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:R37"/>
-    <mergeCell ref="S37:U37"/>
-    <mergeCell ref="V37:W37"/>
-    <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="Z37:AG37"/>
-    <mergeCell ref="AH37:AK37"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:R36"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="V36:W36"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="Z36:AG36"/>
-    <mergeCell ref="AH38:AK38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="F39:R39"/>
-    <mergeCell ref="S39:U39"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="Z39:AG39"/>
-    <mergeCell ref="AH39:AK39"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F38:R38"/>
-    <mergeCell ref="S38:U38"/>
-    <mergeCell ref="V38:W38"/>
-    <mergeCell ref="X38:Y38"/>
-    <mergeCell ref="Z38:AG38"/>
-    <mergeCell ref="AH40:AK40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="F41:R41"/>
-    <mergeCell ref="S41:U41"/>
-    <mergeCell ref="V41:W41"/>
-    <mergeCell ref="X41:Y41"/>
-    <mergeCell ref="Z41:AG41"/>
-    <mergeCell ref="AH41:AK41"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:R40"/>
-    <mergeCell ref="S40:U40"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="Z40:AG40"/>
-    <mergeCell ref="AH42:AK42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="F43:R43"/>
-    <mergeCell ref="S43:U43"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="X43:Y43"/>
-    <mergeCell ref="Z43:AG43"/>
-    <mergeCell ref="AH43:AK43"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="F42:R42"/>
-    <mergeCell ref="S42:U42"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="X42:Y42"/>
-    <mergeCell ref="Z42:AG42"/>
-    <mergeCell ref="AH44:AK44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="F45:R45"/>
-    <mergeCell ref="S45:U45"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="Z45:AG45"/>
-    <mergeCell ref="AH45:AK45"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="F44:R44"/>
-    <mergeCell ref="S44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="Z44:AG44"/>
-    <mergeCell ref="AH46:AK46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="F47:R47"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="V47:W47"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="Z47:AG47"/>
-    <mergeCell ref="AH47:AK47"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="F46:R46"/>
-    <mergeCell ref="S46:U46"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="X46:Y46"/>
-    <mergeCell ref="Z46:AG46"/>
-    <mergeCell ref="AH48:AK48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="F49:R49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="Z49:AG49"/>
-    <mergeCell ref="AH49:AK49"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="F48:R48"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="Z48:AG48"/>
-    <mergeCell ref="F51:R51"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="X51:Y51"/>
-    <mergeCell ref="Z51:AG51"/>
-    <mergeCell ref="AH51:AK51"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="F50:R50"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="X50:Y50"/>
-    <mergeCell ref="Z50:AG50"/>
-    <mergeCell ref="AH50:AK50"/>
-    <mergeCell ref="B51:E51"/>
     <mergeCell ref="AH54:AK54"/>
     <mergeCell ref="B54:E54"/>
     <mergeCell ref="F54:R54"/>
@@ -3444,6 +3174,210 @@
     <mergeCell ref="V52:W52"/>
     <mergeCell ref="X52:Y52"/>
     <mergeCell ref="Z52:AG52"/>
+    <mergeCell ref="F51:R51"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="X51:Y51"/>
+    <mergeCell ref="Z51:AG51"/>
+    <mergeCell ref="AH51:AK51"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="F50:R50"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="X50:Y50"/>
+    <mergeCell ref="Z50:AG50"/>
+    <mergeCell ref="AH50:AK50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="AH48:AK48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="F49:R49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="Z49:AG49"/>
+    <mergeCell ref="AH49:AK49"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="F48:R48"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="Z48:AG48"/>
+    <mergeCell ref="AH46:AK46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="F47:R47"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="V47:W47"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="Z47:AG47"/>
+    <mergeCell ref="AH47:AK47"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="F46:R46"/>
+    <mergeCell ref="S46:U46"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="X46:Y46"/>
+    <mergeCell ref="Z46:AG46"/>
+    <mergeCell ref="AH44:AK44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="F45:R45"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="X45:Y45"/>
+    <mergeCell ref="Z45:AG45"/>
+    <mergeCell ref="AH45:AK45"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="F44:R44"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="Z44:AG44"/>
+    <mergeCell ref="AH42:AK42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="F43:R43"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="X43:Y43"/>
+    <mergeCell ref="Z43:AG43"/>
+    <mergeCell ref="AH43:AK43"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="F42:R42"/>
+    <mergeCell ref="S42:U42"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="X42:Y42"/>
+    <mergeCell ref="Z42:AG42"/>
+    <mergeCell ref="AH40:AK40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="F41:R41"/>
+    <mergeCell ref="S41:U41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="X41:Y41"/>
+    <mergeCell ref="Z41:AG41"/>
+    <mergeCell ref="AH41:AK41"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:R40"/>
+    <mergeCell ref="S40:U40"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="Z40:AG40"/>
+    <mergeCell ref="AH38:AK38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="F39:R39"/>
+    <mergeCell ref="S39:U39"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="Z39:AG39"/>
+    <mergeCell ref="AH39:AK39"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:R38"/>
+    <mergeCell ref="S38:U38"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="Z38:AG38"/>
+    <mergeCell ref="AH36:AK36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:R37"/>
+    <mergeCell ref="S37:U37"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="X37:Y37"/>
+    <mergeCell ref="Z37:AG37"/>
+    <mergeCell ref="AH37:AK37"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:R36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="Z36:AG36"/>
+    <mergeCell ref="AH34:AK34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:R35"/>
+    <mergeCell ref="S35:U35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="Z35:AG35"/>
+    <mergeCell ref="AH35:AK35"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="X34:Y34"/>
+    <mergeCell ref="Z34:AG34"/>
+    <mergeCell ref="AH32:AK32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="Z33:AG33"/>
+    <mergeCell ref="AH33:AK33"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="Z32:AG32"/>
+    <mergeCell ref="AH30:AK30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="Z31:AG31"/>
+    <mergeCell ref="AH31:AK31"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="Z30:AG30"/>
+    <mergeCell ref="AH28:AK28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="Z29:AG29"/>
+    <mergeCell ref="AH29:AK29"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="Z28:AG28"/>
+    <mergeCell ref="AH26:AK26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="Z27:AG27"/>
+    <mergeCell ref="AH27:AK27"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="Z26:AG26"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="Z25:AG25"/>
+    <mergeCell ref="AH25:AK25"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="Z24:AG24"/>
+    <mergeCell ref="AG2:AJ2"/>
+    <mergeCell ref="H5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:AC5"/>
+    <mergeCell ref="AH5:AK5"/>
+    <mergeCell ref="E6:Q6"/>
+    <mergeCell ref="U6:Z6"/>
+    <mergeCell ref="AH6:AK6"/>
+    <mergeCell ref="AH24:AK24"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3451,11 +3385,30 @@
   <headerFooter>
     <oddFooter>&amp;L&amp;"-,Itálico"&amp;8      &amp;K00+000 .&amp;K01+000*Disponibilizado  diariamente e sempre que necessario no posto de trabalho.</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="dd27be01-4bca-4c88-ae63-3fff93b00dd9" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f8d68d4b-3806-4aed-a7b1-5864b54375a3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100644AD51D614F38469F489871759E53E1" ma:contentTypeVersion="15" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="65dcbd38f297a95f739fc2c877427abf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dd27be01-4bca-4c88-ae63-3fff93b00dd9" xmlns:ns3="f8d68d4b-3806-4aed-a7b1-5864b54375a3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8d154d157f53f347ee11ab586db46144" ns2:_="" ns3:_="">
     <xsd:import namespace="dd27be01-4bca-4c88-ae63-3fff93b00dd9"/>
@@ -3690,27 +3643,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B56FCA6F-2C4D-4A34-B340-8E92F2066FEA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f8d68d4b-3806-4aed-a7b1-5864b54375a3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="dd27be01-4bca-4c88-ae63-3fff93b00dd9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="dd27be01-4bca-4c88-ae63-3fff93b00dd9" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f8d68d4b-3806-4aed-a7b1-5864b54375a3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C05601C8-5390-4C3B-9D49-40C30C808060}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EBFE8F9-3F39-4D6F-AB86-A859113969C0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3727,29 +3685,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C05601C8-5390-4C3B-9D49-40C30C808060}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B56FCA6F-2C4D-4A34-B340-8E92F2066FEA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f8d68d4b-3806-4aed-a7b1-5864b54375a3"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="dd27be01-4bca-4c88-ae63-3fff93b00dd9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>